--- a/vivadoHLS2019/maxpool/max_pool.xlsx
+++ b/vivadoHLS2019/maxpool/max_pool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenq\MAG\code\FFF\HLS2019\maxpool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321ECABD-1DFF-4839-B75F-7CADCFB83262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67FE171-FCF0-49F3-91FC-6D429A54D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22046" yWindow="-9" windowWidth="22149" windowHeight="13200" xr2:uid="{3E39EAFA-0FC1-46EA-A262-30C0B79FB8CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>no_directive</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>(S19)</t>
+  </si>
+  <si>
+    <t>Rast virov</t>
+  </si>
+  <si>
+    <t>SpeedUp-1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Col_Loop_puf_2</t>
+  </si>
+  <si>
+    <t>Col_Loop_puf_4</t>
+  </si>
+  <si>
+    <t>pipeline+unroll_f2</t>
+  </si>
+  <si>
+    <t>pipeline+unroll_f4</t>
   </si>
 </sst>
 </file>
@@ -216,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -259,6 +286,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F253DC8-6256-4440-A308-EBB73A5DD631}">
-  <dimension ref="A2:S112"/>
+  <dimension ref="A2:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="M10" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,13 +631,13 @@
     <col min="19" max="19" width="19.5703125" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +685,14 @@
       <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -671,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -688,7 +724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -704,8 +740,14 @@
       <c r="R5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -722,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -737,20 +779,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -801,8 +843,14 @@
       <c r="S11" s="1">
         <v>14365</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>2497</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
@@ -853,8 +901,14 @@
       <c r="S12" s="1">
         <v>14365</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U12" s="1">
+        <v>2497</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>(C11-D11)/C11</f>
         <v>0.88920254057868742</v>
@@ -912,7 +966,7 @@
         <v>0.22018348623853212</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
@@ -963,8 +1017,14 @@
       <c r="S15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1015,8 +1075,14 @@
       <c r="S16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1067,8 +1133,14 @@
       <c r="S17" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>531</v>
+      </c>
+      <c r="V17" s="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1119,8 +1191,14 @@
       <c r="S18" s="1">
         <v>723</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>1970</v>
+      </c>
+      <c r="V18" s="1">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1169,14 +1247,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1">
         <f>SUM(C15:C19)</f>
         <v>930</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:S20" si="0">SUM(D15:D19)</f>
+        <f t="shared" ref="D20:V20" si="0">SUM(D15:D19)</f>
         <v>99869</v>
       </c>
       <c r="E20" s="1">
@@ -1233,15 +1311,27 @@
         <f t="shared" si="0"/>
         <v>964</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="0"/>
+        <v>2501</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1">
         <f>SUM(C17/2,C18)</f>
         <v>810.5</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:S21" si="1">SUM(D17/2,D18)</f>
+        <f t="shared" ref="D21:V21" si="1">SUM(D17/2,D18)</f>
         <v>87816</v>
       </c>
       <c r="E21" s="1">
@@ -1304,8 +1394,20 @@
         <f t="shared" si="1"/>
         <v>843.5</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="1"/>
+        <v>2235.5</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="1"/>
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1325,7 +1427,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1374,8 +1476,14 @@
       <c r="S23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1424,8 +1532,14 @@
       <c r="S24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1488,8 +1602,16 @@
         <f>(S17-C17)/C17</f>
         <v>8.368200836820083E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f>(U17-C17)/C17</f>
+        <v>1.2217573221757323</v>
+      </c>
+      <c r="V25">
+        <f>(V17-C17)/C17</f>
+        <v>2.3807531380753137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1552,8 +1674,16 @@
         <f>(S18-C18)/C18</f>
         <v>4.6309696092619389E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f>(U18-C18)/C18</f>
+        <v>1.8509406657018814</v>
+      </c>
+      <c r="V26">
+        <f>(V18-C18)/C18</f>
+        <v>3.6338639652677278</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1573,188 +1703,158 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <f>(D20-C20)/C20</f>
         <v>106.38602150537635</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="8">
         <f>(E20-C20)/C20</f>
         <v>9.2645161290322573</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="8">
         <f>(F20-C20)/C20</f>
         <v>1.2548387096774194</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="8">
         <f>(G20-C20)/C20</f>
         <v>0.54731182795698929</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="8">
         <f>(H20-C20)/C20</f>
         <v>0.18279569892473119</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="8">
         <f>(I20-C20)/C20</f>
         <v>2.9623655913978495</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="8">
         <f>(J20-C20)/C20</f>
         <v>5.7322580645161292</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="8">
         <f>(K20-C20)/C20</f>
         <v>5.161290322580645</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="8">
         <f>(L20-C20)/C20</f>
         <v>0.21397849462365592</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="8">
         <f>(M20-C20)/C20</f>
         <v>0.13010752688172042</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
+      <c r="N28" s="8"/>
+      <c r="O28" s="8">
         <f>(O20-C20)/C20</f>
         <v>9.1838709677419352</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="9">
         <f>(P20-C20)/C20</f>
         <v>1.1053763440860216</v>
       </c>
-      <c r="R28">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9">
         <f>(R20-C20)/C20</f>
         <v>0.18172043010752689</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="9">
         <f>(S20-C20)/C20</f>
         <v>3.6559139784946237E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <f>D28/D13</f>
-        <v>119.64205751834784</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" ref="E29:S29" si="2">E28/E13</f>
-        <v>10.413182720904461</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4105927790912152</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.70204241924627109</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.3623068183658783</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="2"/>
-        <v>7795.6766513056837</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
-        <v>1257.0705453149001</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="2"/>
-        <v>87.066052227342539</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2957586618876942</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29545250896057346</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1">
-        <f t="shared" si="2"/>
-        <v>10.339572613175296</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" si="2"/>
-        <v>1.279671797034226</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33012544802867383</v>
-      </c>
-      <c r="S29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.16603942652329748</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D30">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
         <f>D13/D28</f>
         <v>8.3582648170911298E-3</v>
       </c>
-      <c r="E30">
-        <f t="shared" ref="E30:S30" si="3">E13/E28</f>
+      <c r="E30" s="9">
+        <f t="shared" ref="E30:S30" si="2">E13/E28</f>
         <v>9.6032118786555085E-2</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
+      <c r="F30" s="9">
+        <f t="shared" si="2"/>
         <v>0.70892181983538682</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
+      <c r="G30" s="9">
+        <f t="shared" si="2"/>
         <v>1.4244153523851493</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="H30" s="9">
+        <f t="shared" si="2"/>
         <v>2.7600915834549444</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
+      <c r="I30" s="9">
+        <f t="shared" si="2"/>
         <v>1.2827622857247573E-4</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="3"/>
+      <c r="J30" s="9">
+        <f t="shared" si="2"/>
         <v>7.9550030324630424E-4</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
+      <c r="K30" s="9">
+        <f t="shared" si="2"/>
         <v>1.1485532815808046E-2</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="3"/>
+      <c r="L30" s="9">
+        <f t="shared" si="2"/>
         <v>0.77174865151445304</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="3"/>
+      <c r="M30" s="9">
+        <f t="shared" si="2"/>
         <v>3.3846387140799155</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="3"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9">
+        <f t="shared" si="2"/>
         <v>9.6715796427188944E-2</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
+      <c r="P30" s="9">
+        <f t="shared" si="2"/>
         <v>0.78145037056970801</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="3"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9">
+        <f t="shared" si="2"/>
         <v>3.0291515118614623</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="3"/>
+      <c r="S30" s="9">
+        <f t="shared" si="2"/>
         <v>6.0226659471127899</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
       <c r="D32">
         <f>(D21-C21)/C21</f>
         <v>107.34793337446021</v>
@@ -1811,66 +1911,228 @@
         <f>(S21-C21)/C21</f>
         <v>4.0715607649599014E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f>(U21-C21)/C21</f>
+        <v>1.75817396668723</v>
+      </c>
+      <c r="V32">
+        <f>(V21-C21)/C21</f>
+        <v>3.4491054904380012</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D13/D32</f>
         <v>8.2833689725250251E-3</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:S33" si="4">E13/E32</f>
+        <f t="shared" ref="E33:U33" si="3">E13/E32</f>
         <v>9.1156645902696204E-2</v>
       </c>
       <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.73310284699440775</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>1.4183283717510957</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>2.8201647669732259</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1.2601918165873273E-4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>7.7693726291513845E-4</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>1.1359871681270855E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.68462422863042316</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>2.9993061444761393</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>9.1766307532252595E-2</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>0.80657519455980542</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>2.8599153140437545</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>5.407839866555463</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <f>(C12/D12)-1</f>
+        <v>8.0254777070063703</v>
+      </c>
+      <c r="E35">
+        <f>(C12/E12)-1</f>
+        <v>8.0654527559055111</v>
+      </c>
+      <c r="F35">
+        <f>(C12/F12)-1</f>
+        <v>8.0565388397246807</v>
+      </c>
+      <c r="G35">
+        <f>(C12/G12)-1</f>
+        <v>3.5371921182266011</v>
+      </c>
+      <c r="H35">
+        <f>(C12/H12)-1</f>
+        <v>1.0182973594828533</v>
+      </c>
+      <c r="I35">
+        <f>(C12/I12)-1</f>
+        <v>3.8014554143583901E-4</v>
+      </c>
+      <c r="J35">
+        <f>(C12/J12)-1</f>
+        <v>4.5809020014178081E-3</v>
+      </c>
+      <c r="K35">
+        <f>(C12/K12)-1</f>
+        <v>6.3015753938484576E-2</v>
+      </c>
+      <c r="L35">
+        <f>(C12/L12)-1</f>
+        <v>0.19780219780219777</v>
+      </c>
+      <c r="M35">
+        <f>(C12/M12)-1</f>
+        <v>0.78688524590163933</v>
+      </c>
+      <c r="O35">
+        <f>(C12/O12)-1</f>
+        <v>7.9465760077707621</v>
+      </c>
+      <c r="P35">
+        <f>(C12/P12)-1</f>
+        <v>6.3419689119170988</v>
+      </c>
+      <c r="R35">
+        <f>(C12/R12)-1</f>
+        <v>1.2244897959183674</v>
+      </c>
+      <c r="S35">
+        <f>(C12/S12)-1</f>
+        <v>0.2823529411764707</v>
+      </c>
+      <c r="U35">
+        <f>(C12/U12)-1</f>
+        <v>6.3772527032438928</v>
+      </c>
+      <c r="V35">
+        <f>(C12/V12)-1</f>
+        <v>5.7451482973269865</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <f>D35/D32</f>
+        <v>7.4761362000432888E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:V36" si="4">E35/E32</f>
+        <v>0.82637626681770016</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>0.73310284699440775</v>
-      </c>
-      <c r="G33">
+        <v>6.639374407317594</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="4"/>
-        <v>1.4183283717510957</v>
-      </c>
-      <c r="H33">
+        <v>6.4352283093662397</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="4"/>
-        <v>2.8201647669732259</v>
-      </c>
-      <c r="I33">
+        <v>5.6919311024886392</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="4"/>
-        <v>1.2601918165873273E-4</v>
-      </c>
-      <c r="J33">
+        <v>1.2606708728876741E-4</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="4"/>
-        <v>7.7693726291513845E-4</v>
-      </c>
-      <c r="K33">
+        <v>7.8049633637778716E-4</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="4"/>
-        <v>1.1359871681270855E-2</v>
-      </c>
-      <c r="L33">
+        <v>1.2075722559910568E-2</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="4"/>
-        <v>0.68462422863042316</v>
-      </c>
-      <c r="M33">
+        <v>0.82004440572215498</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
-        <v>2.9993061444761393</v>
-      </c>
-      <c r="O33">
+        <v>5.359415897506544</v>
+      </c>
+      <c r="N36" t="e">
         <f t="shared" si="4"/>
-        <v>9.1766307532252595E-2</v>
-      </c>
-      <c r="P33">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="4"/>
-        <v>0.80657519455980542</v>
-      </c>
-      <c r="R33">
+        <v>0.8209942452897645</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="4"/>
-        <v>2.8599153140437545</v>
-      </c>
-      <c r="S33">
+        <v>5.9218500035815769</v>
+      </c>
+      <c r="Q36" t="e">
         <f t="shared" si="4"/>
-        <v>5.407839866555463</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>6.3618524332810047</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>6.9347593582887725</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>3.6272023270029301</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="4"/>
+        <v>1.6656922536159982</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1885,7 +2147,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1900,7 +2162,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1915,7 +2177,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1930,7 +2192,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1945,7 +2207,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1960,7 +2222,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1975,7 +2237,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2323,6 +2585,7 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
       <c r="C66" s="1">
         <f>SUM(C62/2,C63)</f>
         <v>802.5</v>
@@ -2456,77 +2719,87 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="1">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8">
         <f>(D65-C65)/C65</f>
         <v>9.3019480519480524</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="9">
         <f>(E65-C65)/C65</f>
         <v>24.99134199134199</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="9">
         <f>(F65-C65)/C65</f>
         <v>17.216450216450216</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="9">
         <f>(G65-C65)/C65</f>
         <v>14.608225108225108</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="9">
         <f>(H65-C65)/C65</f>
         <v>10.084415584415584</v>
       </c>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="1">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8">
         <f>D73/D58</f>
         <v>10.140935953832665</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="8">
         <f>E73/E58</f>
         <v>25.077107106645038</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="8">
         <f>F73/F58</f>
         <v>17.330050564189907</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="8">
         <f>G73/G58</f>
         <v>14.752379297032066</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="8">
         <f>H73/H58</f>
         <v>10.382433399095873</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="1">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8">
         <f>D58/D73</f>
         <v>9.8610227355006616E-2</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="8">
         <f>E58/E73</f>
         <v>3.9877007971745503E-2</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="8">
         <f>F58/F73</f>
         <v>5.7703236138638751E-2</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="8">
         <f>G58/G73</f>
         <v>6.7785675779173021E-2</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="8">
         <f>H58/H73</f>
         <v>9.6316534049434147E-2</v>
       </c>
-      <c r="I75" s="1"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
       <c r="E77">
         <f>(E66-D66)/D66</f>
         <v>1.3798021624108581</v>
@@ -2568,6 +2841,56 @@
       <c r="I78">
         <f>I59/I77</f>
         <v>9.1032836320991781E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80">
+        <f>(D56/E56)-1</f>
+        <v>23.19047619047619</v>
+      </c>
+      <c r="F80">
+        <f>(D56/F56)-1</f>
+        <v>11.621118012422361</v>
+      </c>
+      <c r="G80">
+        <f>(D56/G56)-1</f>
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="H80">
+        <f>(D56/H56)-1</f>
+        <v>1.8822695035460995</v>
+      </c>
+      <c r="I80">
+        <f>(D56/I56)-1</f>
+        <v>4.9236829148213701E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81">
+        <f>E80/E77</f>
+        <v>16.807102367455819</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81:I81" si="7">F80/F77</f>
+        <v>17.033465396611316</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="7"/>
+        <v>16.858901441371252</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>36.045046396100858</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>9.1077658003099971E-2</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3084,35 +3407,35 @@
         <v>1629</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" ref="E105:L105" si="7">SUM(E100:E104)</f>
+        <f t="shared" ref="E105:L105" si="8">SUM(E100:E104)</f>
         <v>5417</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5487</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2047</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8783</v>
       </c>
       <c r="I105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21160</v>
       </c>
       <c r="J105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1541</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2021</v>
       </c>
       <c r="L105" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1240</v>
       </c>
     </row>
@@ -3162,39 +3485,39 @@
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6">
-        <f t="shared" ref="D107:L107" si="8">D106/D98</f>
+        <f t="shared" ref="D107:L107" si="9">D106/D98</f>
         <v>1.3635832078857619</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2355344624049271</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3326827847660097</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5585366573070851</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.306374988581172</v>
       </c>
       <c r="I107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.396491338116022</v>
       </c>
       <c r="J107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3192230669909242</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.67343140360357</v>
       </c>
       <c r="L107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.95624423390816837</v>
       </c>
     </row>
@@ -3203,35 +3526,35 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5">
-        <f t="shared" ref="D108:K108" si="9">D98/D106</f>
+        <f t="shared" ref="D108:K108" si="10">D98/D106</f>
         <v>0.73336192042911819</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.16037117684605323</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15791095717057138</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.6416275134188042</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5332255399859068E-2</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.4649850947774371E-2</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75802191837120125</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.59757453926500859</v>
       </c>
       <c r="L108" s="5">
